--- a/Tables/aq_hmf_metrics_outlet_max_50_90.xlsx
+++ b/Tables/aq_hmf_metrics_outlet_max_50_90.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -559,10 +559,10 @@
         <v>1.459116551150861</v>
       </c>
       <c r="F2" t="n">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>5.857142857142857</v>
+        <v>2.25</v>
       </c>
       <c r="H2" t="n">
         <v>227.3157894736842</v>
@@ -583,22 +583,22 @@
         <v>0.3204263682406892</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4388381781031584</v>
+        <v>0.3876998560356504</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5497350399163584</v>
+        <v>0.4988539577919978</v>
       </c>
       <c r="P2" t="n">
         <v>0.5649966616702066</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.557574566988096</v>
+        <v>0.4488038958281765</v>
       </c>
       <c r="R2" t="n">
         <v>0.3844809781419805</v>
       </c>
       <c r="S2" t="n">
-        <v>0.60124594048848</v>
+        <v>0.3279039186351805</v>
       </c>
       <c r="T2" t="n">
         <v>0.4429290155215085</v>
@@ -1306,16 +1306,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.517248836615685</v>
+        <v>0.5613206077733276</v>
       </c>
       <c r="C13" t="n">
-        <v>38.74468085106383</v>
+        <v>41.45454545454545</v>
       </c>
       <c r="D13" t="n">
-        <v>8.298388018600784</v>
+        <v>11.62651515151515</v>
       </c>
       <c r="E13" t="n">
-        <v>0.06478477685864963</v>
+        <v>0.1606413858112602</v>
       </c>
       <c r="F13" t="n">
         <v>100</v>
@@ -1324,25 +1324,25 @@
         <v>14.92</v>
       </c>
       <c r="H13" t="n">
-        <v>156.06</v>
+        <v>164.1818181818182</v>
       </c>
       <c r="I13" t="n">
         <v>0.1160096589774643</v>
       </c>
       <c r="J13" t="n">
-        <v>0.109022482035427</v>
+        <v>0.1337481686740752</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1320635574942805</v>
+        <v>0.1646626895137728</v>
       </c>
       <c r="L13" t="n">
-        <v>0.09046063130817965</v>
+        <v>0.1403499153269078</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1353878249750252</v>
+        <v>0.1943571846810787</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0465602899053842</v>
+        <v>0.119866910668596</v>
       </c>
       <c r="O13" t="n">
         <v>0.06820318650253257</v>
@@ -1351,16 +1351,16 @@
         <v>0.04828928484391209</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.06681475488004136</v>
+        <v>0.1558631727991296</v>
       </c>
       <c r="R13" t="n">
-        <v>0.06806512973956617</v>
+        <v>0.3631452083284032</v>
       </c>
       <c r="S13" t="n">
         <v>0.08372744231608927</v>
       </c>
       <c r="T13" t="n">
-        <v>0.09298713270680749</v>
+        <v>0.1592598351824928</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -1447,10 +1447,10 @@
         <v>5.092654648822595</v>
       </c>
       <c r="C15" t="n">
-        <v>39.65217391304348</v>
+        <v>48.89189189189189</v>
       </c>
       <c r="D15" t="n">
-        <v>13.71076604554866</v>
+        <v>16.40436466686467</v>
       </c>
       <c r="E15" t="n">
         <v>0.8673724950047269</v>
@@ -1927,61 +1927,61 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.873736095397328</v>
+        <v>0.708410480109248</v>
       </c>
       <c r="C22" t="n">
-        <v>65.14285714285714</v>
+        <v>73.04000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>23.87746598639456</v>
+        <v>43.48333333333334</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6765391364903054</v>
+        <v>0.3171406645825489</v>
       </c>
       <c r="F22" t="n">
-        <v>56.00000000000001</v>
+        <v>76</v>
       </c>
       <c r="G22" t="n">
-        <v>3.142857142857143</v>
+        <v>4.676470588235294</v>
       </c>
       <c r="H22" t="n">
-        <v>203.2857142857143</v>
+        <v>231.5277777777778</v>
       </c>
       <c r="I22" t="n">
-        <v>0.158945857987392</v>
+        <v>0.07978935276434304</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3046965185287296</v>
+        <v>0.112909461458976</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5155578511597744</v>
+        <v>0.190361053037088</v>
       </c>
       <c r="L22" t="n">
-        <v>0.7646014596389761</v>
+        <v>0.258183622286784</v>
       </c>
       <c r="M22" t="n">
-        <v>0.638066902459392</v>
+        <v>0.1934283901427312</v>
       </c>
       <c r="N22" t="n">
-        <v>0.374430911812416</v>
+        <v>0.1904536733970528</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0254933171918208</v>
+        <v>0.05953741591775041</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>0.0002935890655488</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>0.000413634372350981</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>0.081226308135168</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>0.093214528311744</v>
       </c>
       <c r="T22" t="n">
-        <v>0.026728837842672</v>
+        <v>0.066220644784896</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>

--- a/Tables/aq_hmf_metrics_outlet_max_50_90.xlsx
+++ b/Tables/aq_hmf_metrics_outlet_max_50_90.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,7 +543,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Basin and Range basin-fill aquifers</t>
+          <t>Arizona Alluvial</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -559,7 +559,7 @@
         <v>1.459116551150861</v>
       </c>
       <c r="F2" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G2" t="n">
         <v>2.25</v>
@@ -612,65 +612,65 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Biscayne aquifer</t>
+          <t>Basin and Range basin-fill aquifers</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04583540903192919</v>
+        <v>1.958710644647035</v>
       </c>
       <c r="C3" t="n">
-        <v>58.70967741935484</v>
+        <v>140.4615384615385</v>
       </c>
       <c r="D3" t="n">
-        <v>18.79896429735139</v>
+        <v>95.49358974358974</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01361859924427433</v>
+        <v>1.459116551150861</v>
       </c>
       <c r="F3" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G3" t="n">
-        <v>7.891304347826087</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>233.195652173913</v>
+        <v>256.4857142857143</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0045169901022456</v>
+        <v>0.3784075582297352</v>
       </c>
       <c r="J3" t="n">
-        <v>0.008891399218490879</v>
+        <v>0.4062189183739204</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01709422334157888</v>
+        <v>0.3903492934709327</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01664650001661696</v>
+        <v>0.2904700312381368</v>
       </c>
       <c r="M3" t="n">
-        <v>0.005693915268764352</v>
+        <v>0.3204263682406892</v>
       </c>
       <c r="N3" t="n">
-        <v>0.008609805169161841</v>
+        <v>0.3876998560356504</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01942116134360775</v>
+        <v>0.4988539577919978</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01692769309939814</v>
+        <v>0.5649966616702066</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01821292001009712</v>
+        <v>0.4488038958281765</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01376688059869248</v>
+        <v>0.3844809781419805</v>
       </c>
       <c r="S3" t="n">
-        <v>0.00462804715650528</v>
+        <v>0.3279039186351805</v>
       </c>
       <c r="T3" t="n">
-        <v>0.00779968284141312</v>
+        <v>0.4429290155215085</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -681,65 +681,65 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>California Coastal Basin aquifers</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.714932262655245</v>
+        <v>0.04583540903192919</v>
       </c>
       <c r="C4" t="n">
-        <v>49.37837837837838</v>
+        <v>58.70967741935484</v>
       </c>
       <c r="D4" t="n">
-        <v>21.54144144144144</v>
+        <v>18.79896429735139</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4595582128710188</v>
+        <v>0.01361859924427433</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="G4" t="n">
-        <v>12.54</v>
+        <v>3.290322580645161</v>
       </c>
       <c r="H4" t="n">
-        <v>147.5128205128205</v>
+        <v>216.4193548387097</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9068664010764367</v>
+        <v>0.0045169901022456</v>
       </c>
       <c r="J4" t="n">
-        <v>0.82445773133997</v>
+        <v>0.008891399218490879</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8879806484182173</v>
+        <v>0.01709422334157888</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3685210020513688</v>
+        <v>0.01664650001661696</v>
       </c>
       <c r="M4" t="n">
-        <v>0.07434327559841281</v>
+        <v>0.005693915268764352</v>
       </c>
       <c r="N4" t="n">
-        <v>0.05521105482681599</v>
+        <v>0.005775252784878895</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0014037227196552</v>
+        <v>0.01942116134360775</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0037493770246128</v>
+        <v>0.01692769309939814</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.009015630887894401</v>
+        <v>0.01821292001009712</v>
       </c>
       <c r="R4" t="n">
-        <v>0.03149558253192961</v>
+        <v>0.01376688059869248</v>
       </c>
       <c r="S4" t="n">
-        <v>0.477134658135648</v>
+        <v>0.003357830838154929</v>
       </c>
       <c r="T4" t="n">
-        <v>0.7558433017014241</v>
+        <v>0.00779968284141312</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
@@ -750,65 +750,65 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Cambrian-Ordovician aquifer system</t>
+          <t>California Coastal Basin aquifers</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.620777285531257</v>
+        <v>2.492356467022601</v>
       </c>
       <c r="C5" t="n">
-        <v>46.8421052631579</v>
+        <v>62.93103448275862</v>
       </c>
       <c r="D5" t="n">
-        <v>17.44886363636364</v>
+        <v>21.54144144144144</v>
       </c>
       <c r="E5" t="n">
-        <v>1.142383504758437</v>
+        <v>0.3615157880086893</v>
       </c>
       <c r="F5" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>4.531914893617022</v>
+        <v>7.244897959183674</v>
       </c>
       <c r="H5" t="n">
-        <v>215.4042553191489</v>
+        <v>156.2068965517241</v>
       </c>
       <c r="I5" t="n">
-        <v>0.014557124500128</v>
+        <v>0.8696903258607984</v>
       </c>
       <c r="J5" t="n">
-        <v>0.13578494281632</v>
+        <v>0.7118782047082635</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4556682571304994</v>
+        <v>0.5545836283828176</v>
       </c>
       <c r="L5" t="n">
-        <v>1.239306726509006</v>
+        <v>0.250855546007808</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04215380500016</v>
+        <v>0.06536805027635782</v>
       </c>
       <c r="N5" t="n">
-        <v>0.662491881662688</v>
+        <v>0.02935890655488</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5187229473138049</v>
+        <v>0.00102946462151232</v>
       </c>
       <c r="P5" t="n">
-        <v>0.104468775824448</v>
+        <v>0.0037493770246128</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3880268816336641</v>
+        <v>0.001004368193242445</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6272204175377279</v>
+        <v>0.016636713714432</v>
       </c>
       <c r="S5" t="n">
-        <v>0.110748319726464</v>
+        <v>0.3932951743099009</v>
       </c>
       <c r="T5" t="n">
-        <v>0.058554708073344</v>
+        <v>0.7469467100775021</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
@@ -819,65 +819,65 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Central Valley aquifer system</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.58571155616814</v>
+        <v>2.620777285531257</v>
       </c>
       <c r="C6" t="n">
-        <v>90.75</v>
+        <v>48.94594594594594</v>
       </c>
       <c r="D6" t="n">
-        <v>49.06666666666667</v>
+        <v>22.41</v>
       </c>
       <c r="E6" t="n">
-        <v>1.190544000170998</v>
+        <v>1.142383504758437</v>
       </c>
       <c r="F6" t="n">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="G6" t="n">
-        <v>2.666666666666667</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>173.55</v>
+        <v>215.468085106383</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7286207798645999</v>
+        <v>0.04549689525411692</v>
       </c>
       <c r="J6" t="n">
-        <v>0.939997625584896</v>
+        <v>0.177743713434336</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8696891025730252</v>
+        <v>0.469090084732416</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8489993541690684</v>
+        <v>1.239306726509006</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4985932765118178</v>
+        <v>1.04215380500016</v>
       </c>
       <c r="N6" t="n">
-        <v>0.33151098651552</v>
+        <v>0.662491881662688</v>
       </c>
       <c r="O6" t="n">
-        <v>0.154903183156224</v>
+        <v>0.5187229473138049</v>
       </c>
       <c r="P6" t="n">
-        <v>0.002691233100864</v>
+        <v>0.149485765875264</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.052112059134912</v>
+        <v>0.3880268816336641</v>
       </c>
       <c r="R6" t="n">
-        <v>0.206001660993408</v>
+        <v>0.6272204175377279</v>
       </c>
       <c r="S6" t="n">
-        <v>0.470598806319264</v>
+        <v>0.244902212178624</v>
       </c>
       <c r="T6" t="n">
-        <v>0.6888803945736074</v>
+        <v>0.05829840015897601</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -888,65 +888,65 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Coastal lowlands aquifer system</t>
+          <t>Central South High Plains</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.758101408901094</v>
+        <v>0.363670712367606</v>
       </c>
       <c r="C7" t="n">
-        <v>52.2</v>
+        <v>46.84615384615385</v>
       </c>
       <c r="D7" t="n">
-        <v>13.60232142857143</v>
+        <v>10.80590659340659</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9225659669249319</v>
+        <v>0.04888506315634342</v>
       </c>
       <c r="F7" t="n">
         <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>9.387755102040817</v>
+        <v>12.04</v>
       </c>
       <c r="H7" t="n">
-        <v>216.7083333333333</v>
+        <v>244.98</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8811269871679059</v>
+        <v>0.00947314051504128</v>
       </c>
       <c r="J7" t="n">
-        <v>1.099506834838619</v>
+        <v>0.02415993351912</v>
       </c>
       <c r="K7" t="n">
-        <v>1.182112567913415</v>
+        <v>0.08532591776786756</v>
       </c>
       <c r="L7" t="n">
-        <v>1.34895494222574</v>
+        <v>0.069661141646796</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7019081325953958</v>
+        <v>0.1065166256803143</v>
       </c>
       <c r="N7" t="n">
-        <v>0.809531071991712</v>
+        <v>0.07456302657315166</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7841274625699201</v>
+        <v>0.06298590361107158</v>
       </c>
       <c r="P7" t="n">
-        <v>0.298115230309344</v>
+        <v>0.04858120578977019</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6261398466714719</v>
+        <v>0.04475945578279074</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3480933318844801</v>
+        <v>0.1180130180484326</v>
       </c>
       <c r="S7" t="n">
-        <v>0.501181000647264</v>
+        <v>0.06814528421460481</v>
       </c>
       <c r="T7" t="n">
-        <v>0.5070542211203266</v>
+        <v>0.02282410327087296</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -957,65 +957,65 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Columbia Plateau basaltic-rock aquifers</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.729287427987646</v>
+        <v>2.58571155616814</v>
       </c>
       <c r="C8" t="n">
-        <v>49.37837837837838</v>
+        <v>90.75</v>
       </c>
       <c r="D8" t="n">
-        <v>18.55965250965251</v>
+        <v>49.06666666666667</v>
       </c>
       <c r="E8" t="n">
-        <v>1.123048147155037</v>
+        <v>1.190544000170998</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="G8" t="n">
-        <v>5.767441860465116</v>
+        <v>4.384615384615385</v>
       </c>
       <c r="H8" t="n">
-        <v>241.1860465116279</v>
+        <v>173.55</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3587005960860679</v>
+        <v>0.7286207798645999</v>
       </c>
       <c r="J8" t="n">
-        <v>0.32784112319616</v>
+        <v>0.939997625584896</v>
       </c>
       <c r="K8" t="n">
-        <v>0.632195121148416</v>
+        <v>0.8696891025730252</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4989526596397511</v>
+        <v>0.8489993541690684</v>
       </c>
       <c r="M8" t="n">
-        <v>1.710444139238965</v>
+        <v>0.4985932765118178</v>
       </c>
       <c r="N8" t="n">
-        <v>2.742251396813534</v>
+        <v>0.33151098651552</v>
       </c>
       <c r="O8" t="n">
-        <v>1.536327114261408</v>
+        <v>0.154903183156224</v>
       </c>
       <c r="P8" t="n">
-        <v>0.15556142848176</v>
+        <v>0.002691233100864</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.06361096420223999</v>
+        <v>0.052112059134912</v>
       </c>
       <c r="R8" t="n">
-        <v>0.001345616550432</v>
+        <v>0.206001660993408</v>
       </c>
       <c r="S8" t="n">
-        <v>0.05627123756352</v>
+        <v>0.470598806319264</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1225448914852512</v>
+        <v>0.6888803945736074</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -1026,65 +1026,65 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Edwards-Trinity aquifer system</t>
+          <t>Coastal Lowlands</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.116567115145309</v>
+        <v>3.758101408901094</v>
       </c>
       <c r="C9" t="n">
-        <v>48.86486486486486</v>
+        <v>38.84782608695652</v>
       </c>
       <c r="D9" t="n">
-        <v>12.530710414247</v>
+        <v>12.36215277777778</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7714091967531689</v>
+        <v>0.9225659669249319</v>
       </c>
       <c r="F9" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>6.431818181818182</v>
+        <v>9.387755102040817</v>
       </c>
       <c r="H9" t="n">
-        <v>198.1363636363636</v>
+        <v>177.2857142857143</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4472217769749387</v>
+        <v>0.8811269871679059</v>
       </c>
       <c r="J9" t="n">
-        <v>0.177108768828288</v>
+        <v>1.099506834838619</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5353134479345834</v>
+        <v>1.182112567913415</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4098242387002962</v>
+        <v>1.34895494222574</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8321335297011402</v>
+        <v>0.7019081325953958</v>
       </c>
       <c r="N9" t="n">
-        <v>0.9017608536460915</v>
+        <v>0.475614286189056</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6446237249233128</v>
+        <v>0.4184329225223352</v>
       </c>
       <c r="P9" t="n">
-        <v>0.5914188620444131</v>
+        <v>0.2270177449356099</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.07573374603385837</v>
+        <v>0.215696216595384</v>
       </c>
       <c r="R9" t="n">
-        <v>0.275843237586738</v>
+        <v>0.278769807954432</v>
       </c>
       <c r="S9" t="n">
-        <v>0.3237722798646424</v>
+        <v>0.2900605599276676</v>
       </c>
       <c r="T9" t="n">
-        <v>0.4804248653568488</v>
+        <v>0.5070542211203266</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
@@ -1095,65 +1095,65 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Floridan aquifer system</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.081070504589277</v>
+        <v>1.873428525900086</v>
       </c>
       <c r="C10" t="n">
-        <v>54.81818181818182</v>
+        <v>52.2</v>
       </c>
       <c r="D10" t="n">
-        <v>38.74090909090909</v>
+        <v>13.60232142857143</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6530757784846237</v>
+        <v>0.4923015653063281</v>
       </c>
       <c r="F10" t="n">
-        <v>95.91800000000001</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>6.733333333333333</v>
+        <v>14.36</v>
       </c>
       <c r="H10" t="n">
-        <v>209.3947368421053</v>
+        <v>206.9761904761905</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5347880520142538</v>
+        <v>0.6330339470499841</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4996943462124037</v>
+        <v>0.4290871684734919</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7491615805278947</v>
+        <v>0.4786789439785566</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6273019700559379</v>
+        <v>0.5049064679563113</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2997055044144</v>
+        <v>0.48943161284544</v>
       </c>
       <c r="N10" t="n">
-        <v>0.09022970614533192</v>
+        <v>0.809531071991712</v>
       </c>
       <c r="O10" t="n">
-        <v>0.8182117550369679</v>
+        <v>0.7841274625699201</v>
       </c>
       <c r="P10" t="n">
-        <v>0.179252435021184</v>
+        <v>0.298115230309344</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.2056917614242185</v>
+        <v>0.6261398466714719</v>
       </c>
       <c r="R10" t="n">
-        <v>0.415428527751552</v>
+        <v>0.3480933318844801</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1971287470123784</v>
+        <v>0.501181000647264</v>
       </c>
       <c r="T10" t="n">
-        <v>0.478437922201836</v>
+        <v>0.435018607661088</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
@@ -1164,65 +1164,65 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>High Plains aquifer</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9169165985949258</v>
+        <v>8.960389787402981</v>
       </c>
       <c r="C11" t="n">
-        <v>46.84615384615385</v>
+        <v>49.37837837837838</v>
       </c>
       <c r="D11" t="n">
-        <v>10.80590659340659</v>
+        <v>21.39484126984127</v>
       </c>
       <c r="E11" t="n">
-        <v>0.145579412141223</v>
+        <v>2.639241876870535</v>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="G11" t="n">
-        <v>12.04</v>
+        <v>5.767441860465116</v>
       </c>
       <c r="H11" t="n">
-        <v>244.98</v>
+        <v>241.1860465116279</v>
       </c>
       <c r="I11" t="n">
-        <v>0.009808321364876169</v>
+        <v>0.7356037142361599</v>
       </c>
       <c r="J11" t="n">
-        <v>0.08497772397273601</v>
+        <v>0.9317375205263999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2773845801808704</v>
+        <v>1.713714962161745</v>
       </c>
       <c r="L11" t="n">
-        <v>0.216102522891456</v>
+        <v>1.343382720585433</v>
       </c>
       <c r="M11" t="n">
-        <v>0.237888695612736</v>
+        <v>3.37240050919632</v>
       </c>
       <c r="N11" t="n">
-        <v>0.4104724647164544</v>
+        <v>4.389008252648727</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1753450056705224</v>
+        <v>1.536327114261408</v>
       </c>
       <c r="P11" t="n">
-        <v>0.07423827673121999</v>
+        <v>0.15556142848176</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.05686249332052801</v>
+        <v>0.06361096420223999</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1180130180484326</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.06814528421460481</v>
+        <v>0.03885161967429191</v>
       </c>
       <c r="T11" t="n">
-        <v>0.052968360576096</v>
+        <v>0.25933700790144</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1233,65 +1233,65 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Lower Cretaceous aquifers</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.80106093302712</v>
+        <v>1.287798452465671</v>
       </c>
       <c r="C12" t="n">
-        <v>75.70833333333333</v>
+        <v>56.9375</v>
       </c>
       <c r="D12" t="n">
-        <v>34.17569444444445</v>
+        <v>14.28425099206349</v>
       </c>
       <c r="E12" t="n">
-        <v>1.606753207202256</v>
+        <v>0.2220909044542912</v>
       </c>
       <c r="F12" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G12" t="n">
-        <v>11.4</v>
+        <v>7.297872340425532</v>
       </c>
       <c r="H12" t="n">
-        <v>256.84</v>
+        <v>230.9183673469388</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03458295698998896</v>
+        <v>0.08589192770184778</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0496899493441344</v>
+        <v>0.230630521492224</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5737708971042048</v>
+        <v>0.169765749696597</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9590226630468479</v>
+        <v>0.204332892589577</v>
       </c>
       <c r="M12" t="n">
-        <v>1.056536174104128</v>
+        <v>0.4585281015957007</v>
       </c>
       <c r="N12" t="n">
-        <v>1.171338819021504</v>
+        <v>0.5495267540332194</v>
       </c>
       <c r="O12" t="n">
-        <v>1.274910517145664</v>
+        <v>0.224361171654984</v>
       </c>
       <c r="P12" t="n">
-        <v>1.606530240352128</v>
+        <v>0.1403914950590977</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.050047982850333</v>
+        <v>0.1287023784516827</v>
       </c>
       <c r="R12" t="n">
-        <v>0.757663670411424</v>
+        <v>0.3636218012448109</v>
       </c>
       <c r="S12" t="n">
-        <v>0.7671971597899392</v>
+        <v>0.1377333955813457</v>
       </c>
       <c r="T12" t="n">
-        <v>0.137171335625856</v>
+        <v>0.1496227741058536</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -1302,65 +1302,65 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Mississippi River Valley alluvial aquifer</t>
+          <t>Floridan aquifer system</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5613206077733276</v>
+        <v>2.081070504589277</v>
       </c>
       <c r="C13" t="n">
-        <v>41.45454545454545</v>
+        <v>54.81818181818182</v>
       </c>
       <c r="D13" t="n">
-        <v>11.62651515151515</v>
+        <v>38.74090909090909</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1606413858112602</v>
+        <v>0.6530757784846237</v>
       </c>
       <c r="F13" t="n">
-        <v>100</v>
+        <v>95.91800000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>14.92</v>
+        <v>5.531914893617022</v>
       </c>
       <c r="H13" t="n">
-        <v>164.1818181818182</v>
+        <v>207.3636363636364</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1160096589774643</v>
+        <v>0.5347880520142538</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1337481686740752</v>
+        <v>0.4996943462124037</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1646626895137728</v>
+        <v>0.7491615805278947</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1403499153269078</v>
+        <v>0.6273019700559379</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1943571846810787</v>
+        <v>0.2997055044144</v>
       </c>
       <c r="N13" t="n">
-        <v>0.119866910668596</v>
+        <v>0.09022970614533192</v>
       </c>
       <c r="O13" t="n">
-        <v>0.06820318650253257</v>
+        <v>0.8182117550369679</v>
       </c>
       <c r="P13" t="n">
-        <v>0.04828928484391209</v>
+        <v>0.179252435021184</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.1558631727991296</v>
+        <v>0.2056917614242185</v>
       </c>
       <c r="R13" t="n">
-        <v>0.3631452083284032</v>
+        <v>0.415428527751552</v>
       </c>
       <c r="S13" t="n">
-        <v>0.08372744231608927</v>
+        <v>0.1971287470123784</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1592598351824928</v>
+        <v>0.478437922201836</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -1371,65 +1371,65 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Mississippi embayment aquifer system</t>
+          <t>High Plains aquifer</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.758101408901094</v>
+        <v>0.3437292889030403</v>
       </c>
       <c r="C14" t="n">
-        <v>41.45454545454545</v>
+        <v>58.90322580645162</v>
       </c>
       <c r="D14" t="n">
-        <v>11.62651515151515</v>
+        <v>42.22795698924731</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9225659669249319</v>
+        <v>0.2398283696437854</v>
       </c>
       <c r="F14" t="n">
         <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>17.54</v>
+        <v>12.04</v>
       </c>
       <c r="H14" t="n">
-        <v>164.1818181818182</v>
+        <v>248.2903225806452</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8811269871679059</v>
+        <v>0.0165877822035072</v>
       </c>
       <c r="J14" t="n">
-        <v>1.099506834838619</v>
+        <v>0.045214075303152</v>
       </c>
       <c r="K14" t="n">
-        <v>1.182112567913415</v>
+        <v>0.1265124214960704</v>
       </c>
       <c r="L14" t="n">
-        <v>1.34895494222574</v>
+        <v>0.07957079201554561</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7019081325953958</v>
+        <v>0.1042608169030176</v>
       </c>
       <c r="N14" t="n">
-        <v>0.475614286189056</v>
+        <v>0.1629578341206346</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4184329225223352</v>
+        <v>0.0804773841762912</v>
       </c>
       <c r="P14" t="n">
-        <v>0.542895113710656</v>
+        <v>0.08720573877017855</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.429944875992576</v>
+        <v>0.07252348940639999</v>
       </c>
       <c r="R14" t="n">
-        <v>0.645712451041392</v>
+        <v>0.1193806537787808</v>
       </c>
       <c r="S14" t="n">
-        <v>0.2900605599276676</v>
+        <v>0.07494750561968117</v>
       </c>
       <c r="T14" t="n">
-        <v>0.5070542211203266</v>
+        <v>0.0233185833729408</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
@@ -1440,65 +1440,65 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Northern Atlantic Coastal Plain aquifer system</t>
+          <t>Lower Cretaceous aquifers</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.092654648822595</v>
+        <v>3.80106093302712</v>
       </c>
       <c r="C15" t="n">
-        <v>48.89189189189189</v>
+        <v>75.70833333333333</v>
       </c>
       <c r="D15" t="n">
-        <v>16.40436466686467</v>
+        <v>37.23125</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8673724950047269</v>
+        <v>1.606753207202256</v>
       </c>
       <c r="F15" t="n">
         <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>11.97959183673469</v>
+        <v>7.638297872340425</v>
       </c>
       <c r="H15" t="n">
-        <v>187.94</v>
+        <v>261.09375</v>
       </c>
       <c r="I15" t="n">
-        <v>0.962473409984869</v>
+        <v>0.02496975002492544</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8323168455790273</v>
+        <v>0.05186740158028801</v>
       </c>
       <c r="K15" t="n">
-        <v>1.296373657164951</v>
+        <v>0.5737708971042048</v>
       </c>
       <c r="L15" t="n">
-        <v>1.429489023171127</v>
+        <v>0.9590226630468479</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7009540880625361</v>
+        <v>1.056536174104128</v>
       </c>
       <c r="N15" t="n">
-        <v>1.811227061054208</v>
+        <v>1.171338819021504</v>
       </c>
       <c r="O15" t="n">
-        <v>0.49123741860576</v>
+        <v>1.274910517145664</v>
       </c>
       <c r="P15" t="n">
-        <v>0.4753696286344321</v>
+        <v>1.606530240352128</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.14197689073312</v>
+        <v>1.050047982850333</v>
       </c>
       <c r="R15" t="n">
-        <v>0.383106546368448</v>
+        <v>0.757663670411424</v>
       </c>
       <c r="S15" t="n">
-        <v>0.4715529707822976</v>
+        <v>0.7671971597899392</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8540408053792743</v>
+        <v>0.137171335625856</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -1509,65 +1509,65 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+          <t>Mississippi River Valley alluvial aquifer</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.13358863171744</v>
+        <v>12.75506477855646</v>
       </c>
       <c r="C16" t="n">
-        <v>58.93548387096774</v>
+        <v>53.58823529411764</v>
       </c>
       <c r="D16" t="n">
-        <v>28.29356060606061</v>
+        <v>32.19607843137255</v>
       </c>
       <c r="E16" t="n">
-        <v>1.428510025046534</v>
+        <v>4.593579417839069</v>
       </c>
       <c r="F16" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="G16" t="n">
-        <v>2.645161290322581</v>
+        <v>7.56</v>
       </c>
       <c r="H16" t="n">
-        <v>248.7619047619048</v>
+        <v>201.5128205128205</v>
       </c>
       <c r="I16" t="n">
-        <v>0.031071509437248</v>
+        <v>1.39974703439256</v>
       </c>
       <c r="J16" t="n">
-        <v>0.073152608832576</v>
+        <v>0.52682926762368</v>
       </c>
       <c r="K16" t="n">
-        <v>0.02722744993899602</v>
+        <v>2.1563845022832</v>
       </c>
       <c r="L16" t="n">
-        <v>0.138421807571712</v>
+        <v>4.57264969592256</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8233165842041796</v>
+        <v>4.566912898089997</v>
       </c>
       <c r="N16" t="n">
-        <v>1.19759872988448</v>
+        <v>4.276614054827521</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2338339044074343</v>
+        <v>5.781502673319745</v>
       </c>
       <c r="P16" t="n">
-        <v>0.02405473077063185</v>
+        <v>5.97453748391808</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1768384804822278</v>
+        <v>2.43271161814464</v>
       </c>
       <c r="R16" t="n">
-        <v>0.01024136523656078</v>
+        <v>3.11367514518144</v>
       </c>
       <c r="S16" t="n">
-        <v>0.01963866190966872</v>
+        <v>1.285920107103744</v>
       </c>
       <c r="T16" t="n">
-        <v>0.01156740918262297</v>
+        <v>2.96891942536224</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
@@ -1578,65 +1578,65 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basaltic-rock aquifers</t>
+          <t>Mississippi embayment aquifer system</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.298495978785845</v>
+        <v>3.758101408901094</v>
       </c>
       <c r="C17" t="n">
-        <v>43.5</v>
+        <v>44.53658536585366</v>
       </c>
       <c r="D17" t="n">
-        <v>25.77579365079365</v>
+        <v>12.530710414247</v>
       </c>
       <c r="E17" t="n">
-        <v>1.432221441315653</v>
+        <v>0.9225659669249319</v>
       </c>
       <c r="F17" t="n">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="G17" t="n">
-        <v>2.119047619047619</v>
+        <v>18.30612244897959</v>
       </c>
       <c r="H17" t="n">
-        <v>246.9761904761905</v>
+        <v>184</v>
       </c>
       <c r="I17" t="n">
-        <v>0.007437589660569957</v>
+        <v>0.8811269871679059</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1656331644804507</v>
+        <v>1.099506834838619</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1268467868207248</v>
+        <v>1.182112567913415</v>
       </c>
       <c r="L17" t="n">
-        <v>0.171190968596325</v>
+        <v>1.34895494222574</v>
       </c>
       <c r="M17" t="n">
-        <v>0.8609352552685815</v>
+        <v>0.8321335297011402</v>
       </c>
       <c r="N17" t="n">
-        <v>1.384598654135428</v>
+        <v>0.9017608536460915</v>
       </c>
       <c r="O17" t="n">
-        <v>0.2496196546636936</v>
+        <v>0.6446237249233128</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>0.5914188620444131</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>0.429944875992576</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>0.645712451041392</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>0.3237722798646424</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0005382466201729781</v>
+        <v>0.5070542211203266</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
@@ -1647,65 +1647,65 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basin-fill aquifers</t>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.356276158041934</v>
+        <v>5.092654648822595</v>
       </c>
       <c r="C18" t="n">
-        <v>39.56521739130435</v>
+        <v>48.89189189189189</v>
       </c>
       <c r="D18" t="n">
-        <v>9.826086956521738</v>
+        <v>16.40436466686467</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9239822074046888</v>
+        <v>0.8673724950047269</v>
       </c>
       <c r="F18" t="n">
         <v>100</v>
       </c>
       <c r="G18" t="n">
-        <v>11.76595744680851</v>
+        <v>14.04</v>
       </c>
       <c r="H18" t="n">
-        <v>129.7142857142857</v>
+        <v>183.6486486486486</v>
       </c>
       <c r="I18" t="n">
-        <v>1.219021949090658</v>
+        <v>0.962473409984869</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8689368200534524</v>
+        <v>0.8323168455790273</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4825391587134136</v>
+        <v>1.296373657164951</v>
       </c>
       <c r="L18" t="n">
-        <v>0.393234592439232</v>
+        <v>1.429489023171127</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1107357731852012</v>
+        <v>0.7009540880625361</v>
       </c>
       <c r="N18" t="n">
-        <v>0.2042215663718334</v>
+        <v>1.811227061054208</v>
       </c>
       <c r="O18" t="n">
-        <v>0.246300255347904</v>
+        <v>0.49123741860576</v>
       </c>
       <c r="P18" t="n">
-        <v>0.0623713659254784</v>
+        <v>0.4753696286344321</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.031377331380528</v>
+        <v>2.14197689073312</v>
       </c>
       <c r="R18" t="n">
-        <v>0.116049233409984</v>
+        <v>0.383106546368448</v>
       </c>
       <c r="S18" t="n">
-        <v>0.6303310635893761</v>
+        <v>0.4715529707822976</v>
       </c>
       <c r="T18" t="n">
-        <v>1.307044355438516</v>
+        <v>0.8540408053792743</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
@@ -1716,65 +1716,65 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+          <t>Northern High Plaisn</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.092654648822595</v>
+        <v>0.9169165985949258</v>
       </c>
       <c r="C19" t="n">
-        <v>48.89189189189189</v>
+        <v>38.87234042553192</v>
       </c>
       <c r="D19" t="n">
-        <v>16.40436466686467</v>
+        <v>6.216719674882939</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8673724950047269</v>
+        <v>0.145579412141223</v>
       </c>
       <c r="F19" t="n">
         <v>100</v>
       </c>
       <c r="G19" t="n">
-        <v>10.02083333333333</v>
+        <v>7.673469387755102</v>
       </c>
       <c r="H19" t="n">
-        <v>183.6486486486486</v>
+        <v>238.9</v>
       </c>
       <c r="I19" t="n">
-        <v>0.962473409984869</v>
+        <v>0.009808321364876169</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8323168455790273</v>
+        <v>0.08497772397273601</v>
       </c>
       <c r="K19" t="n">
-        <v>1.296373657164951</v>
+        <v>0.2773845801808704</v>
       </c>
       <c r="L19" t="n">
-        <v>1.429489023171127</v>
+        <v>0.216102522891456</v>
       </c>
       <c r="M19" t="n">
-        <v>0.7009540880625361</v>
+        <v>0.237888695612736</v>
       </c>
       <c r="N19" t="n">
-        <v>1.811227061054208</v>
+        <v>0.4104724647164544</v>
       </c>
       <c r="O19" t="n">
-        <v>0.49123741860576</v>
+        <v>0.1753450056705224</v>
       </c>
       <c r="P19" t="n">
-        <v>0.4753696286344321</v>
+        <v>0.07423827673121999</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.14197689073312</v>
+        <v>0.05686249332052801</v>
       </c>
       <c r="R19" t="n">
-        <v>0.383106546368448</v>
+        <v>0.08803223647289019</v>
       </c>
       <c r="S19" t="n">
-        <v>0.4715529707822976</v>
+        <v>0.02355130707573373</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8540408053792743</v>
+        <v>0.052968360576096</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
@@ -1785,53 +1785,53 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Rio Grande aquifer system</t>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2090629386456408</v>
+        <v>2.298495978785845</v>
       </c>
       <c r="C20" t="n">
-        <v>56.84375</v>
+        <v>69.03846153846153</v>
       </c>
       <c r="D20" t="n">
-        <v>33.90520833333333</v>
+        <v>30.98717948717949</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1490793667403878</v>
+        <v>1.432221441315653</v>
       </c>
       <c r="F20" t="n">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="G20" t="n">
-        <v>2.46875</v>
+        <v>2.961538461538462</v>
       </c>
       <c r="H20" t="n">
-        <v>238.28125</v>
+        <v>251.6122448979592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.040490825290272</v>
       </c>
       <c r="J20" t="n">
-        <v>0.019939590701856</v>
+        <v>0.1656331644804507</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0106344483743232</v>
+        <v>0.1268467868207248</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03243158302499869</v>
+        <v>0.171190968596325</v>
       </c>
       <c r="M20" t="n">
-        <v>0.08396805118279309</v>
+        <v>0.8609352552685815</v>
       </c>
       <c r="N20" t="n">
-        <v>0.09735021961510811</v>
+        <v>1.384598654135428</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0559496876345856</v>
+        <v>0.2496196546636936</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0131931586330992</v>
+        <v>0.0043549044723072</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -1840,10 +1840,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>0.003572000297510401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>0.004991014114329601</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
@@ -1854,65 +1854,65 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Silurian-Devonian aquifers</t>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.441364542762329</v>
+        <v>3.356276158041934</v>
       </c>
       <c r="C21" t="n">
-        <v>44.07317073170731</v>
+        <v>65.14285714285714</v>
       </c>
       <c r="D21" t="n">
-        <v>16.57674418604651</v>
+        <v>23.87746598639456</v>
       </c>
       <c r="E21" t="n">
-        <v>1.346649232900936</v>
+        <v>0.9239822074046888</v>
       </c>
       <c r="F21" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G21" t="n">
-        <v>6.673469387755102</v>
+        <v>10.66</v>
       </c>
       <c r="H21" t="n">
-        <v>218.9512195121951</v>
+        <v>233.4791666666667</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2214621364644554</v>
+        <v>1.219021949090658</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1995140175621716</v>
+        <v>0.8689368200534524</v>
       </c>
       <c r="K21" t="n">
-        <v>0.77821490499984</v>
+        <v>0.7424096425738822</v>
       </c>
       <c r="L21" t="n">
-        <v>1.39139326657349</v>
+        <v>0.7646014596389761</v>
       </c>
       <c r="M21" t="n">
-        <v>1.378808425342656</v>
+        <v>0.638066902459392</v>
       </c>
       <c r="N21" t="n">
-        <v>0.8364958296192</v>
+        <v>0.53885826405936</v>
       </c>
       <c r="O21" t="n">
-        <v>1.032643078632222</v>
+        <v>0.08709808944614401</v>
       </c>
       <c r="P21" t="n">
-        <v>0.418609075961664</v>
+        <v>0.003835880945712</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.308730649762752</v>
+        <v>0.018838631706048</v>
       </c>
       <c r="R21" t="n">
-        <v>1.50569249331456</v>
+        <v>0.04195877061801601</v>
       </c>
       <c r="S21" t="n">
-        <v>0.61653703765248</v>
+        <v>0.6303310635893761</v>
       </c>
       <c r="T21" t="n">
-        <v>0.134259910725826</v>
+        <v>1.307044355438516</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -1923,65 +1923,65 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Snake River Plain basaltic-rock aquifers</t>
+          <t>Pacific Northwest basin-fill aquifers</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.708410480109248</v>
+        <v>2.499819146565048</v>
       </c>
       <c r="C22" t="n">
-        <v>73.04000000000001</v>
+        <v>65.14285714285714</v>
       </c>
       <c r="D22" t="n">
-        <v>43.48333333333334</v>
+        <v>40.11973180076628</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3171406645825489</v>
+        <v>1.38353072390949</v>
       </c>
       <c r="F22" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="G22" t="n">
-        <v>4.676470588235294</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="H22" t="n">
-        <v>231.5277777777778</v>
+        <v>247.65</v>
       </c>
       <c r="I22" t="n">
-        <v>0.07978935276434304</v>
+        <v>0.6098986626703488</v>
       </c>
       <c r="J22" t="n">
-        <v>0.112909461458976</v>
+        <v>0.6803087768191872</v>
       </c>
       <c r="K22" t="n">
-        <v>0.190361053037088</v>
+        <v>0.7424096425738822</v>
       </c>
       <c r="L22" t="n">
-        <v>0.258183622286784</v>
+        <v>0.7646014596389761</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1934283901427312</v>
+        <v>0.9237689810499184</v>
       </c>
       <c r="N22" t="n">
-        <v>0.1904536733970528</v>
+        <v>1.50480927009613</v>
       </c>
       <c r="O22" t="n">
-        <v>0.05953741591775041</v>
+        <v>0.2980373847237818</v>
       </c>
       <c r="P22" t="n">
-        <v>0.0002935890655488</v>
+        <v>0.0038288907298656</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.000413634372350981</v>
+        <v>0.0187994864973082</v>
       </c>
       <c r="R22" t="n">
-        <v>0.081226308135168</v>
+        <v>0.04195877061801601</v>
       </c>
       <c r="S22" t="n">
-        <v>0.093214528311744</v>
+        <v>0.1992001809748608</v>
       </c>
       <c r="T22" t="n">
-        <v>0.066220644784896</v>
+        <v>0.4775908616961499</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
@@ -1992,65 +1992,65 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Southeastern Coastal Plain aquifer system</t>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.714968802568872</v>
+        <v>5.092654648822595</v>
       </c>
       <c r="C23" t="n">
-        <v>47.92105263157895</v>
+        <v>38.82978723404256</v>
       </c>
       <c r="D23" t="n">
-        <v>8.548606701940034</v>
+        <v>5.999730769230768</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6490596628681449</v>
+        <v>0.8673724950047269</v>
       </c>
       <c r="F23" t="n">
-        <v>95.556</v>
+        <v>100</v>
       </c>
       <c r="G23" t="n">
-        <v>7.418604651162791</v>
+        <v>10.57142857142857</v>
       </c>
       <c r="H23" t="n">
-        <v>172.1842105263158</v>
+        <v>177.52</v>
       </c>
       <c r="I23" t="n">
-        <v>0.8843363186197384</v>
+        <v>0.962473409984869</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8429748002674222</v>
+        <v>0.8323168455790273</v>
       </c>
       <c r="K23" t="n">
-        <v>1.144141054199136</v>
+        <v>1.296373657164951</v>
       </c>
       <c r="L23" t="n">
-        <v>1.084149582643245</v>
+        <v>1.429489023171127</v>
       </c>
       <c r="M23" t="n">
-        <v>0.699047797949424</v>
+        <v>0.7009540880625361</v>
       </c>
       <c r="N23" t="n">
-        <v>0.43304387168448</v>
+        <v>1.811227061054208</v>
       </c>
       <c r="O23" t="n">
-        <v>0.468478440845856</v>
+        <v>0.49123741860576</v>
       </c>
       <c r="P23" t="n">
-        <v>0.116987087369376</v>
+        <v>0.4753696286344321</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.1691073017561088</v>
+        <v>2.14197689073312</v>
       </c>
       <c r="R23" t="n">
-        <v>0.3698561650517395</v>
+        <v>0.383106546368448</v>
       </c>
       <c r="S23" t="n">
-        <v>0.2603855402784</v>
+        <v>0.4715529707822976</v>
       </c>
       <c r="T23" t="n">
-        <v>0.536896472926912</v>
+        <v>0.8540408053792743</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
@@ -2061,65 +2061,65 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Surficial aquifer system</t>
+          <t>Rio Grande aquifer system</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.741251116978496</v>
+        <v>0.2044014476751954</v>
       </c>
       <c r="C24" t="n">
-        <v>60.3</v>
+        <v>56.8125</v>
       </c>
       <c r="D24" t="n">
-        <v>28.38777777777778</v>
+        <v>31.575</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6735047143042301</v>
+        <v>0.1209683666250618</v>
       </c>
       <c r="F24" t="n">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="G24" t="n">
-        <v>6.232558139534884</v>
+        <v>4.027027027027027</v>
       </c>
       <c r="H24" t="n">
-        <v>256.8723404255319</v>
+        <v>245.4864864864865</v>
       </c>
       <c r="I24" t="n">
-        <v>0.53335346908032</v>
+        <v>0.0005627123756352001</v>
       </c>
       <c r="J24" t="n">
-        <v>0.490798345672908</v>
+        <v>0.0355732084423296</v>
       </c>
       <c r="K24" t="n">
-        <v>0.8203204701506304</v>
+        <v>0.0085997130450336</v>
       </c>
       <c r="L24" t="n">
-        <v>0.543937173665536</v>
+        <v>0.0354066082979904</v>
       </c>
       <c r="M24" t="n">
-        <v>0.194411009343096</v>
+        <v>0.08770402465642944</v>
       </c>
       <c r="N24" t="n">
-        <v>0.143246998232352</v>
+        <v>0.09338872449063629</v>
       </c>
       <c r="O24" t="n">
-        <v>0.312183039700224</v>
+        <v>0.048634426751328</v>
       </c>
       <c r="P24" t="n">
-        <v>0.127955901068352</v>
+        <v>0.015372649682208</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.08223289921704961</v>
+        <v>0.0029195801518464</v>
       </c>
       <c r="R24" t="n">
-        <v>0.21529864806912</v>
+        <v>0.0384846333423552</v>
       </c>
       <c r="S24" t="n">
-        <v>0.07589277344436481</v>
+        <v>0.0126487955740608</v>
       </c>
       <c r="T24" t="n">
-        <v>0.4058053306030081</v>
+        <v>0.0007339726638720001</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
@@ -2130,65 +2130,65 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Valley and Ridge aquifers</t>
+          <t>Sacramento River Basin</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.686549531162661</v>
+        <v>2.58571155616814</v>
       </c>
       <c r="C25" t="n">
-        <v>39.52173913043478</v>
+        <v>55.09090909090909</v>
       </c>
       <c r="D25" t="n">
-        <v>6.054240988480119</v>
+        <v>21.52929292929293</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7141505995521095</v>
+        <v>1.04555826959414</v>
       </c>
       <c r="F25" t="n">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="G25" t="n">
-        <v>10.20833333333333</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="H25" t="n">
-        <v>172.5</v>
+        <v>140.6363636363636</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7906633143863051</v>
+        <v>0.7286207798645999</v>
       </c>
       <c r="J25" t="n">
-        <v>0.766472657741086</v>
+        <v>0.939997625584896</v>
       </c>
       <c r="K25" t="n">
-        <v>1.165964508071598</v>
+        <v>0.8696891025730252</v>
       </c>
       <c r="L25" t="n">
-        <v>1.23373524742819</v>
+        <v>0.8489993541690684</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6928294184360652</v>
+        <v>0.42461677813632</v>
       </c>
       <c r="N25" t="n">
-        <v>1.106602430067994</v>
+        <v>0.33151098651552</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4540914115979911</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0.4659870114146024</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.779290415319638</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.4202785039814522</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0.4346679318327945</v>
+        <v>0.470598806319264</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7213050484860464</v>
+        <v>0.6888803945736074</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
@@ -2199,67 +2199,550 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
+          <t>San Joaquin River Basin</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2.085424296981782</v>
+      </c>
+      <c r="C26" t="n">
+        <v>90.75</v>
+      </c>
+      <c r="D26" t="n">
+        <v>49.06666666666667</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.190544000170998</v>
+      </c>
+      <c r="F26" t="n">
+        <v>40</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H26" t="n">
+        <v>173.55</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.4902937394664961</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.43243222779792</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.5257834765078362</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.7137790057095729</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.4985932765118178</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.322295551958016</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.154903183156224</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.002691233100864</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.052112059134912</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.206001660993408</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.071195348395584</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.2721570637637376</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>8.444502292380134</v>
+      </c>
+      <c r="C27" t="n">
+        <v>44.17073170731707</v>
+      </c>
+      <c r="D27" t="n">
+        <v>20.35374149659864</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.100807891154423</v>
+      </c>
+      <c r="F27" t="n">
+        <v>100</v>
+      </c>
+      <c r="G27" t="n">
+        <v>17.28</v>
+      </c>
+      <c r="H27" t="n">
+        <v>216.1219512195122</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.78760571395742</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.33403307111296</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.68226232386112</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.44331344551168</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2.431080567780481</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.278719189197969</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2.04098768901888</v>
+      </c>
+      <c r="P27" t="n">
+        <v>6.70239370892448</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.48507135656768</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2.044358526438144</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.8881069232851201</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.3792947187184</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1.873736095397328</v>
+      </c>
+      <c r="C28" t="n">
+        <v>65.14285714285714</v>
+      </c>
+      <c r="D28" t="n">
+        <v>23.87746598639456</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.6765391364903054</v>
+      </c>
+      <c r="F28" t="n">
+        <v>56.00000000000001</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.142857142857143</v>
+      </c>
+      <c r="H28" t="n">
+        <v>203.2857142857143</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.158945857987392</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.3046965185287296</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.5155578511597744</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.7646014596389761</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.638066902459392</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.374430911812416</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.0254933171918208</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.026728837842672</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>3.714968802568872</v>
+      </c>
+      <c r="C29" t="n">
+        <v>47.92105263157895</v>
+      </c>
+      <c r="D29" t="n">
+        <v>7.841925804691762</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.6490596628681449</v>
+      </c>
+      <c r="F29" t="n">
+        <v>98</v>
+      </c>
+      <c r="G29" t="n">
+        <v>10.02083333333333</v>
+      </c>
+      <c r="H29" t="n">
+        <v>172.1842105263158</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.8843363186197384</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.8429748002674222</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1.144141054199136</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.084149582643245</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.699047797949424</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.43304387168448</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.468478440845856</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.116987087369376</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.1691073017561088</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.281096239165812</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.2603855402784</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.536896472926912</v>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1.741251116978496</v>
+      </c>
+      <c r="C30" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="D30" t="n">
+        <v>28.38777777777778</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.6735047143042301</v>
+      </c>
+      <c r="F30" t="n">
+        <v>96</v>
+      </c>
+      <c r="G30" t="n">
+        <v>6.916666666666667</v>
+      </c>
+      <c r="H30" t="n">
+        <v>256.8723404255319</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.53335346908032</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.490798345672908</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.8203204701506304</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.543937173665536</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.194411009343096</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.2206426680836928</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.612296306705664</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.2450979382223232</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.233088747398208</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.3698561650517395</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.1792850560284672</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.4058053306030081</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Texas Gulf Coast</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1.873428525900086</v>
+      </c>
+      <c r="C31" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>13.60232142857143</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.4923015653063281</v>
+      </c>
+      <c r="F31" t="n">
+        <v>100</v>
+      </c>
+      <c r="G31" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="H31" t="n">
+        <v>216.7083333333333</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.6330339470499841</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.3229343800173121</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.4786789439785566</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.2729644336939968</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.48943161284544</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.809531071991712</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.7841274625699201</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.298115230309344</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.6261398466714719</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.3480933318844801</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.501181000647264</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.435018607661088</v>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>4.686549531162661</v>
+      </c>
+      <c r="C32" t="n">
+        <v>39.52173913043478</v>
+      </c>
+      <c r="D32" t="n">
+        <v>6.054240988480119</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.7141505995521095</v>
+      </c>
+      <c r="F32" t="n">
+        <v>100</v>
+      </c>
+      <c r="G32" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="H32" t="n">
+        <v>180.54</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.7906633143863051</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.766472657741086</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1.165964508071598</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.23373524742819</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.6928294184360652</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.106602430067994</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.4540914115979911</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.4659870114146024</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.779290415319638</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.4202785039814522</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.4346679318327945</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.7213050484860464</v>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
           <t>Willamette Lowland basin-fill aquifers</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B33" t="n">
         <v>3.356276158041934</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C33" t="n">
         <v>38.06521739130435</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D33" t="n">
         <v>9.826086956521738</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E33" t="n">
         <v>0.9239822074046888</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F33" t="n">
         <v>95.833</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G33" t="n">
         <v>4.152173913043478</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H33" t="n">
         <v>105.7826086956522</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I33" t="n">
         <v>1.219021949090658</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J33" t="n">
         <v>0.8689368200534524</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K33" t="n">
         <v>0.4825391587134136</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L33" t="n">
         <v>0.393234592439232</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M33" t="n">
         <v>0.00856301441184</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N33" t="n">
         <v>0.18532809762768</v>
       </c>
-      <c r="O26" t="n">
+      <c r="O33" t="n">
         <v>0</v>
       </c>
-      <c r="P26" t="n">
+      <c r="P33" t="n">
         <v>0</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q33" t="n">
         <v>0</v>
       </c>
-      <c r="R26" t="n">
+      <c r="R33" t="n">
         <v>0.005137808647104</v>
       </c>
-      <c r="S26" t="n">
+      <c r="S33" t="n">
         <v>0.6303310635893761</v>
       </c>
-      <c r="T26" t="n">
+      <c r="T33" t="n">
         <v>1.307044355438516</v>
       </c>
-      <c r="U26" t="inlineStr">
+      <c r="U33" t="inlineStr">
         <is>
           <t>max</t>
         </is>
